--- a/pred_ohlcv/54_21/2020-01-19 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 AMO ohlcv.xlsx
@@ -1380,7 +1380,7 @@
         <v>5176063.809700005</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-16978857.78265391</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-28067515.12601471</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-30525118.41401471</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-31270836.13380045</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-33519972.21810943</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-33630157.13010944</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-34778439.03110944</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-33774245.09010944</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-34680692.84810943</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-35179924.44880046</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-34840893.95380045</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-33989263.73580045</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-34849369.71680045</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-34849369.71680045</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-33684136.29080045</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-33684136.29080045</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-32230726.94380045</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-33209493.59780045</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-32476524.05280045</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-31285863.33880045</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-32196823.89380045</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-32198772.45190045</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-31270860.37190045</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-30584323.61890045</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-7807177.44210045</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-2234020.14410045</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-234108.02410045</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-1221350.44010045</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-2573050.63910045</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>5556237.908999549</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>4114020.477099549</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>5491147.963099549</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>4003835.566099549</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>2719941.466099549</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2712307.130808515</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>431296.1570085157</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 AMO ohlcv.xlsx
@@ -5176,7 +5176,7 @@
         <v>-16978857.78265391</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-28459297.4972147</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-28067515.12601471</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-30525118.41401471</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-31270836.13380045</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-33519972.21810943</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-33570826.79310943</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-33630157.13010944</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-36708344.94830944</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-32059098.98980046</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-34614411.42680047</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-34673741.76280046</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-35635556.89180046</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-35635556.89180046</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-34224526.35680047</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-34730709.04280046</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-33650233.23980046</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-35179924.44880046</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-34840893.95380045</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-33989263.73580045</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-34849369.71680045</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-34849369.71680045</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-33684136.29080045</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-33684136.29080045</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-32230726.94380045</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-33209493.59780045</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-32476524.05280045</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-31285863.33880045</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-32196823.89380045</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-32198772.45190045</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-31270860.37190045</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-30584323.61890045</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-7807177.44210045</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-234108.02410045</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-1221350.44010045</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-2573050.63910045</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>4114020.477099549</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>5491147.963099549</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>4003835.566099549</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>2719941.466099549</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2712307.130808515</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>1886104.199808516</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
